--- a/Mongo/庫存與採購需求表.xlsx
+++ b/Mongo/庫存與採購需求表.xlsx
@@ -1271,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1282,7 +1282,7 @@
     <col min="3" max="3" width="8.875" style="4" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="26.875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="9" customWidth="1"/>
     <col min="7" max="7" width="9.25" style="11" customWidth="1"/>
     <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
@@ -1322,6 +1322,9 @@
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="E2" s="23">
+        <v>485</v>
       </c>
       <c r="F2" s="14">
         <v>88</v>
